--- a/databasePlan.xlsx
+++ b/databasePlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\table\Arcenos\Baldriod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schuszter.zalan\programozás\Baldriod git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CD6D49-1E50-4E0D-803D-53224CFCE78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79D1B6F-2E48-462E-99DB-42463E28FB8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="73">
   <si>
     <t>Player name</t>
   </si>
@@ -153,15 +153,6 @@
     <t>Enemy level</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Admin email</t>
-  </si>
-  <si>
-    <t>Admin password</t>
-  </si>
-  <si>
     <t>Save</t>
   </si>
   <si>
@@ -238,6 +229,21 @@
   </si>
   <si>
     <t>Player dead</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>User email</t>
+  </si>
+  <si>
+    <t>User password</t>
+  </si>
+  <si>
+    <t>User name</t>
+  </si>
+  <si>
+    <t>User id "</t>
   </si>
 </sst>
 </file>
@@ -262,7 +268,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -286,15 +292,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -403,44 +400,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -459,9 +497,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -499,7 +537,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -605,7 +643,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -747,7 +785,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -755,58 +793,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B1:Q51"/>
+  <dimension ref="B1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="26.21875" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="14" max="14" width="19.88671875" customWidth="1"/>
-    <col min="15" max="16" width="11.33203125" customWidth="1"/>
-    <col min="18" max="18" width="24.33203125" customWidth="1"/>
-    <col min="19" max="19" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" customWidth="1"/>
+    <col min="15" max="15" width="28" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="18" max="18" width="24.28515625" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
+    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="I2" s="16"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="2" t="s">
         <v>38</v>
       </c>
@@ -822,16 +860,15 @@
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
@@ -847,16 +884,15 @@
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
@@ -872,16 +908,15 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="P5" s="6"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
@@ -897,18 +932,17 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>26</v>
@@ -922,16 +956,19 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="P7" s="6"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="24"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
@@ -947,16 +984,21 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
@@ -972,16 +1014,23 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="P9" s="6"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="M9" s="21"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
@@ -991,546 +1040,477 @@
       <c r="G10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="L10" s="10"/>
+      <c r="O10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="12"/>
       <c r="G11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="6"/>
       <c r="G12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="3"/>
       <c r="G13" s="3"/>
+      <c r="L13" s="10"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="3"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="14" t="s">
+      <c r="E14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L14" s="10"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="20"/>
-      <c r="L15" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M15" s="15"/>
+      <c r="F15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="I15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="16"/>
+      <c r="L15" s="10"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="11"/>
-    </row>
-    <row r="16" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="O15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="2" t="s">
+      <c r="H16" s="7"/>
+      <c r="I16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="J16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="10"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="3"/>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="H17" s="7"/>
       <c r="I17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="10"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="J18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="10"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="11"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="3"/>
+      <c r="E19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="11"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="L19" s="10"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="3"/>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="J20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="L20" s="10"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="L21" s="10"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
       <c r="J22" s="3"/>
+      <c r="L22" s="10"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="13"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="J23" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="18"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="J24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="8"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="J25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="20"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D31" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D34" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D35" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D36" s="4" t="s">
+      <c r="O30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D37" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D38" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D39" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D41" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D42" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D44" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D45" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D46" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D47" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D48" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D49" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D50" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D51" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" s="4" t="s">
+      <c r="P36" s="4" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="J2:K2"/>
+  <mergeCells count="8">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
